--- a/data/salp/SALP_PREDICT_DATA.xlsx
+++ b/data/salp/SALP_PREDICT_DATA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX2"/>
+  <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,505 +369,500 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>x0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>x0</t>
+          <t>x1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>x1</t>
+          <t>x2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>x2</t>
+          <t>x3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>x3</t>
+          <t>x4</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>x4</t>
+          <t>x5</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>x5</t>
+          <t>x6</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>x6</t>
+          <t>x7</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>x7</t>
+          <t>x8</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>x8</t>
+          <t>x9</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>x9</t>
+          <t>x10</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>x10</t>
+          <t>x11</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>x11</t>
+          <t>x12</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>x12</t>
+          <t>x13</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>x13</t>
+          <t>x14</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>x14</t>
+          <t>x15</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>x15</t>
+          <t>x16</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>x16</t>
+          <t>x17</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>x17</t>
+          <t>x18</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>x18</t>
+          <t>x19</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>x19</t>
+          <t>x20</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>x20</t>
+          <t>x21</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>x21</t>
+          <t>x22</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>x22</t>
+          <t>x23</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>x23</t>
+          <t>x24</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>x24</t>
+          <t>x25</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>x25</t>
+          <t>x26</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>x26</t>
+          <t>x27</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>x27</t>
+          <t>x28</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>x28</t>
+          <t>x29</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>x29</t>
+          <t>x30</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>x30</t>
+          <t>x31</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>x31</t>
+          <t>x32</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>x32</t>
+          <t>x33</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>x33</t>
+          <t>x34</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>x34</t>
+          <t>x35</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>x35</t>
+          <t>x36</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>x36</t>
+          <t>x37</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>x37</t>
+          <t>x38</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>x38</t>
+          <t>x39</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>x39</t>
+          <t>x40</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>x40</t>
+          <t>x41</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>x41</t>
+          <t>x42</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>x42</t>
+          <t>x43</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>x43</t>
+          <t>x44</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>x44</t>
+          <t>x45</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>x45</t>
+          <t>x46</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>x46</t>
+          <t>x47</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>x47</t>
+          <t>x48</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>x48</t>
+          <t>x49</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>x49</t>
+          <t>x50</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>x50</t>
+          <t>x51</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>x51</t>
+          <t>x52</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>x52</t>
+          <t>x53</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>x53</t>
+          <t>x54</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>x54</t>
+          <t>x55</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>x55</t>
+          <t>x56</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>x56</t>
+          <t>x57</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>x57</t>
+          <t>x58</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>x58</t>
+          <t>x59</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>x59</t>
+          <t>x60</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>x60</t>
+          <t>x61</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>x61</t>
+          <t>x62</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>x62</t>
+          <t>x63</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>x63</t>
+          <t>x64</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>x64</t>
+          <t>x65</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>x65</t>
+          <t>x66</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>x66</t>
+          <t>x67</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>x67</t>
+          <t>x68</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>x68</t>
+          <t>x69</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>x69</t>
+          <t>x70</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>x70</t>
+          <t>x71</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>x71</t>
+          <t>x72</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>x72</t>
+          <t>x73</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>x73</t>
+          <t>x74</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>x74</t>
+          <t>x75</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>x75</t>
+          <t>x76</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>x76</t>
+          <t>x77</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>x77</t>
+          <t>x78</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>x78</t>
+          <t>x79</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>x79</t>
+          <t>x80</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>x80</t>
+          <t>x81</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>x81</t>
+          <t>x82</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>x82</t>
+          <t>x83</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>x83</t>
+          <t>x84</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>x84</t>
+          <t>x85</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>x85</t>
+          <t>x86</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>x86</t>
+          <t>x87</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>x87</t>
+          <t>x88</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>x88</t>
+          <t>x89</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>x89</t>
+          <t>x90</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>x90</t>
+          <t>x91</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>x91</t>
+          <t>x92</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>x92</t>
+          <t>x93</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>x93</t>
+          <t>x94</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>x94</t>
+          <t>x95</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>x95</t>
+          <t>x96</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>x96</t>
+          <t>x97</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>x97</t>
+          <t>x98</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>x98</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>x99</t>
         </is>
@@ -878,307 +873,304 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8482052242362497</v>
+        <v>-0.7376069889279597</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06539036579751367</v>
+        <v>0.08921316809624161</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5680783374682855</v>
+        <v>0.3174136109437511</v>
       </c>
       <c r="E2" t="n">
-        <v>1.675923868346207</v>
+        <v>0.3504712114830094</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6990926087443858</v>
+        <v>-1.167423570426599</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4369464002504267</v>
+        <v>-0.182480471395821</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9555251148881043</v>
+        <v>0.113958481307403</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4250431856272722</v>
+        <v>0.5032770252636615</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.357865600172076</v>
+        <v>3.107800260990216</v>
       </c>
       <c r="K2" t="n">
-        <v>0.571347667191891</v>
+        <v>-0.05048985938942052</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07572708981225384</v>
+        <v>0.2135090005185181</v>
       </c>
       <c r="M2" t="n">
-        <v>1.983258207614546</v>
+        <v>3.212138747191992</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4819340676845408</v>
+        <v>4.608809151726265</v>
       </c>
       <c r="O2" t="n">
-        <v>1.291023932356001</v>
+        <v>0.6794928209232127</v>
       </c>
       <c r="P2" t="n">
-        <v>1.609808097256464</v>
+        <v>0.3517055015236883</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.012993800550527</v>
+        <v>1.082940019889473</v>
       </c>
       <c r="R2" t="n">
-        <v>2.647768711831366</v>
+        <v>1.130894255501529</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1870594348408</v>
+        <v>0.902893184796173</v>
       </c>
       <c r="T2" t="n">
-        <v>3.400961680613202</v>
+        <v>0.6607994706237994</v>
       </c>
       <c r="U2" t="n">
-        <v>2.169606329593742</v>
+        <v>3.387522249450145</v>
       </c>
       <c r="V2" t="n">
-        <v>4.296696121838647</v>
+        <v>3.87271379972595</v>
       </c>
       <c r="W2" t="n">
-        <v>4.04079700688879</v>
+        <v>3.11600274244431</v>
       </c>
       <c r="X2" t="n">
-        <v>4.983221369127416</v>
+        <v>1.093642401205496</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07025368395774811</v>
+        <v>0.5284370435604024</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.210795559024024</v>
+        <v>3.03508422652562</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.06781353763983</v>
+        <v>5.096221324156213</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5879816782605571</v>
+        <v>3.556226711729912</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.937918858284048</v>
+        <v>5.419576235291749</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.352048431556946</v>
+        <v>1.795831367833972</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.047624727857848</v>
+        <v>3.392139615870043</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.574198676189901</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>0.1619081839612353</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6855004597978399</v>
+        <v>0.4260031276837178</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.8961134287869533</v>
+        <v>0.4196340448152248</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.8651293300176403</v>
+        <v>0.3718558214998376</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.2449995029508074</v>
+        <v>0.6068402375013423</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.3131501358652866</v>
+        <v>0.6815295335932443</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.8884547698982913</v>
+        <v>0.06718051800988012</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.8318870053656963</v>
+        <v>0.4660858052674883</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.224553970022456</v>
+        <v>0.5932113980188078</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.7115146068641661</v>
+        <v>0.7180565619977045</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.08600455397019546</v>
+        <v>0.7190065984397717</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.6168610985560041</v>
+        <v>0.6040155588925894</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.8163749488778137</v>
+        <v>0.6362085897630153</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01136074928706421</v>
+        <v>0.347928846337863</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.4430861675594809</v>
+        <v>0.6027635649558744</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.5190168786079056</v>
+        <v>0.3222325915883459</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.6416701057492402</v>
+        <v>0.8197653066875972</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1572062797905022</v>
+        <v>0.04544583501048716</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.6145754616958354</v>
+        <v>0.3450886550312114</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.4128224508281959</v>
+        <v>0.3246704285315315</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.4917656424649113</v>
+        <v>0.3399302149460589</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.09961012374723921</v>
+        <v>0.4656595986671996</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.8111778719485478</v>
+        <v>0.2965018890868411</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.603953180288636</v>
+        <v>0.1853066872635915</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.5394037773792778</v>
+        <v>0.9637316106027078</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.002271801879799695</v>
+        <v>0.2478841649319475</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.358610446542092</v>
+        <v>0.4713322265830274</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.2852901918044928</v>
+        <v>0.6069673723654986</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.1748938386051579</v>
+        <v>0.3145040534876186</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.4989794525924073</v>
+        <v>0.4370000162371176</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.4631800492110337</v>
+        <v>0.3022822820511655</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.9571819010904147</v>
+        <v>0.00666032370419245</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.5727971508372665</v>
+        <v>0.2185864129103235</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.8336474929790687</v>
+        <v>0.0578559341167707</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.8449183091082431</v>
+        <v>0.3767166937326817</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.05989905768855486</v>
+        <v>0.3964407339560844</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.1450482299172455</v>
+        <v>0.2578734357216849</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.8690449293321943</v>
+        <v>0.4229396288298418</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.3377611133305891</v>
+        <v>0.3793701627913607</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.01629448456597704</v>
+        <v>0.7815929383449476</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.1097597910711336</v>
+        <v>0.7238891395217136</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.9667207820068675</v>
+        <v>0.7952164936643225</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.1630423574081844</v>
+        <v>0.8868586853171083</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.6953647754123409</v>
+        <v>0.7368096068787947</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.6982965998202411</v>
+        <v>0.6973484389824461</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.7722322673533817</v>
+        <v>0.4586417079219965</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.6568244077500823</v>
+        <v>0.1043155443885085</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.2698705179788675</v>
+        <v>0.3989068703321506</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.1756098830752727</v>
+        <v>0.8147904395991473</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.976262306752041</v>
+        <v>0.9999624807511589</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.3027892212366103</v>
+        <v>0.567738755579174</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.6320049754339833</v>
+        <v>0.1154649132700297</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.567603961494447</v>
+        <v>0.9217437714064274</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.9069693139359706</v>
+        <v>0.4673024568896175</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.7757818468316622</v>
+        <v>0.2038671044275784</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.3995289940323411</v>
+        <v>0.877622423234975</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.7701979627758681</v>
+        <v>0.784932184514558</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.3739946299707442</v>
+        <v>0.3691528616673738</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.6413910122689077</v>
+        <v>0.2201545776078641</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.8605149105638891</v>
+        <v>0.5477170358571657</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0330701797805637</v>
+        <v>0.1282538183001121</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.3939421001354493</v>
+        <v>0.3265943576352063</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.428252741230372</v>
+        <v>0.4505901939494625</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.2516355830667523</v>
+        <v>0.2536561538714617</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.7621830985343122</v>
+        <v>0.5528878256732096</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.2266323034884964</v>
+        <v>0.03767789674902111</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.8906998325929324</v>
+        <v>0.448330855886046</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.3191465776829747</v>
+        <v>0.1961959567741582</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.8680960685116418</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.9636462290462412</v>
+        <v>0.4337462907364097</v>
       </c>
     </row>
   </sheetData>
